--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Layer</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>Color</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>nu</t>
   </si>
   <si>
     <t>substrate</t>
@@ -151,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -163,6 +175,9 @@
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -408,25 +423,49 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>0.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>400000.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>0.0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>123.0</v>
       </c>
     </row>
     <row r="3">
@@ -434,19 +473,31 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>3000.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2">
         <v>500.0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>123.0</v>
       </c>
     </row>
     <row r="4">
@@ -454,19 +505,31 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>5000.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2">
         <v>100.0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="G4" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>123.0</v>
       </c>
     </row>
     <row r="5">
@@ -474,19 +537,31 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1000.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2">
         <v>500.0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="G5" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>123.0</v>
       </c>
     </row>
     <row r="6">
@@ -494,39 +569,63 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>4500.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2">
         <v>3000.0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G6" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>123.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>300.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2">
         <v>500.0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G7" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>123.0</v>
       </c>
     </row>
     <row r="8">
@@ -534,19 +633,31 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
         <v>1500.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2">
         <v>500.0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="G8" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>123.0</v>
       </c>
     </row>
     <row r="9">
@@ -554,19 +665,31 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>3000.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2">
         <v>500.0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="G9" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>123.0</v>
       </c>
     </row>
     <row r="10">
@@ -574,19 +697,31 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>5000.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2">
         <v>500.0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G10" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>123.0</v>
       </c>
     </row>
   </sheetData>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
-  <si>
-    <t>Layer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Material</t>
   </si>
@@ -43,55 +40,61 @@
     <t>nu</t>
   </si>
   <si>
+    <t>t_TiW</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>#690000</t>
+  </si>
+  <si>
+    <t>t_NiCr</t>
+  </si>
+  <si>
+    <t>#976f3d</t>
+  </si>
+  <si>
+    <t>t_PZT</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>t_LNO</t>
+  </si>
+  <si>
+    <t>#86c4fd</t>
+  </si>
+  <si>
+    <t>t_Pt</t>
+  </si>
+  <si>
+    <t>#81004c</t>
+  </si>
+  <si>
+    <t>t_TiO2</t>
+  </si>
+  <si>
+    <t>#5b5b5b</t>
+  </si>
+  <si>
+    <t>t_Ti</t>
+  </si>
+  <si>
+    <t>#9a4f00</t>
+  </si>
+  <si>
+    <t>t_SiO2</t>
+  </si>
+  <si>
+    <t>#004c92</t>
+  </si>
+  <si>
     <t>substrate</t>
   </si>
   <si>
-    <t>nm</t>
-  </si>
-  <si>
     <t>grey</t>
-  </si>
-  <si>
-    <t>t_SiO2</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>t_Ti</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>t_TiO2</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>t_Pt</t>
-  </si>
-  <si>
-    <t>lightblue</t>
-  </si>
-  <si>
-    <t>t_LNO</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>t_PZT</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
-    <t>t_NiCr</t>
-  </si>
-  <si>
-    <t>t_TiW</t>
   </si>
 </sst>
 </file>
@@ -132,14 +135,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -163,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -175,9 +178,6 @@
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -398,10 +398,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.13"/>
-    <col customWidth="1" min="2" max="2" width="21.5"/>
-    <col customWidth="1" min="4" max="4" width="7.5"/>
-    <col customWidth="1" min="5" max="5" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="14.13"/>
+    <col customWidth="1" min="2" max="2" width="14.38"/>
+    <col customWidth="1" min="3" max="3" width="7.88"/>
+    <col customWidth="1" min="4" max="4" width="10.75"/>
+    <col customWidth="1" min="5" max="5" width="11.38"/>
+    <col customWidth="1" min="6" max="9" width="7.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -432,295 +434,265 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5000.0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4500.0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1500.0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3000.0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2">
         <v>400000.0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3000.0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
         <v>500.0</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5000.0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2">
-        <v>500.0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4500.0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3000.0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2">
-        <v>300.0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2">
-        <v>500.0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1500.0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2">
-        <v>500.0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3000.0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2">
-        <v>500.0</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5000.0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2">
-        <v>500.0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="I10" s="2">
         <v>123.0</v>
       </c>
     </row>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Material</t>
   </si>
@@ -91,10 +91,16 @@
     <t>#004c92</t>
   </si>
   <si>
-    <t>substrate</t>
+    <t>SuBsTRatE</t>
   </si>
   <si>
     <t>grey</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>red</t>
   </si>
 </sst>
 </file>
@@ -166,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -181,6 +187,9 @@
     </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,16 +635,16 @@
         <v>23</v>
       </c>
       <c r="F8" s="2">
-        <v>123.0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="2">
-        <v>123.0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" s="2">
-        <v>123.0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" s="2">
-        <v>123.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -694,6 +703,35 @@
       </c>
       <c r="I10" s="2">
         <v>123.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5">
+        <v>500.0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Material</t>
   </si>
@@ -22,22 +22,25 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Indent</t>
+    <t>Indent [nm]</t>
   </si>
   <si>
     <t>Color</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>rho</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>nu</t>
+    <t>Modulus [GPa]</t>
+  </si>
+  <si>
+    <t>CTE [ppm/deg]</t>
+  </si>
+  <si>
+    <t>Density [kg/m3]</t>
+  </si>
+  <si>
+    <t>Stress_x [MPa]</t>
+  </si>
+  <si>
+    <t>Poisson</t>
   </si>
   <si>
     <t>t_TiW</t>
@@ -172,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -181,6 +184,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -412,7 +418,11 @@
     <col customWidth="1" min="3" max="3" width="7.88"/>
     <col customWidth="1" min="4" max="4" width="10.75"/>
     <col customWidth="1" min="5" max="5" width="11.38"/>
-    <col customWidth="1" min="6" max="9" width="7.38"/>
+    <col customWidth="1" min="6" max="6" width="13.38"/>
+    <col customWidth="1" min="7" max="7" width="12.63"/>
+    <col customWidth="1" min="8" max="8" width="14.13"/>
+    <col customWidth="1" min="9" max="9" width="13.63"/>
+    <col customWidth="1" min="10" max="10" width="9.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -443,86 +453,95 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>5000.0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>1.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2">
         <v>123.0</v>
       </c>
-      <c r="G2" s="2">
-        <v>123.0</v>
+      <c r="G2" s="3">
+        <v>0.0</v>
       </c>
       <c r="H2" s="2">
         <v>123.0</v>
       </c>
       <c r="I2" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="J2" s="2">
         <v>123.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>3000.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
         <v>500.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2">
         <v>123.0</v>
       </c>
-      <c r="G3" s="2">
-        <v>123.0</v>
+      <c r="G3" s="3">
+        <v>0.0</v>
       </c>
       <c r="H3" s="2">
         <v>123.0</v>
       </c>
       <c r="I3" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="J3" s="2">
         <v>123.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2">
         <v>5000.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
         <v>100.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>123.0</v>
       </c>
-      <c r="G4" s="2">
-        <v>123.0</v>
+      <c r="G4" s="3">
+        <v>0.0</v>
       </c>
       <c r="H4" s="2">
         <v>123.0</v>
@@ -530,144 +549,159 @@
       <c r="I4" s="2">
         <v>123.0</v>
       </c>
+      <c r="J4" s="2">
+        <v>123.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
+      <c r="A5" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>1000.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>500.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>123.0</v>
       </c>
-      <c r="G5" s="2">
-        <v>123.0</v>
+      <c r="G5" s="3">
+        <v>0.0</v>
       </c>
       <c r="H5" s="2">
         <v>123.0</v>
       </c>
       <c r="I5" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="J5" s="2">
         <v>123.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
         <v>4500.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
         <v>3000.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
         <v>123.0</v>
       </c>
-      <c r="G6" s="2">
-        <v>123.0</v>
+      <c r="G6" s="3">
+        <v>0.0</v>
       </c>
       <c r="H6" s="2">
         <v>123.0</v>
       </c>
       <c r="I6" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="J6" s="2">
         <v>123.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>300.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
         <v>500.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
         <v>123.0</v>
       </c>
-      <c r="G7" s="2">
-        <v>123.0</v>
+      <c r="G7" s="3">
+        <v>0.0</v>
       </c>
       <c r="H7" s="2">
         <v>123.0</v>
       </c>
       <c r="I7" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="J7" s="2">
         <v>123.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2">
         <v>1500.0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2">
         <v>500.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>0.0</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>0.0</v>
       </c>
       <c r="H8" s="2">
         <v>0.0</v>
       </c>
       <c r="I8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2">
         <v>3000.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2">
         <v>500.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2">
         <v>123.0</v>
       </c>
-      <c r="G9" s="2">
-        <v>123.0</v>
+      <c r="G9" s="3">
+        <v>0.0</v>
       </c>
       <c r="H9" s="2">
         <v>123.0</v>
@@ -675,28 +709,31 @@
       <c r="I9" s="2">
         <v>123.0</v>
       </c>
+      <c r="J9" s="2">
+        <v>123.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
+      <c r="A10" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="2">
         <v>400000.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2">
         <v>500.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2">
         <v>123.0</v>
       </c>
-      <c r="G10" s="2">
-        <v>123.0</v>
+      <c r="G10" s="3">
+        <v>0.0</v>
       </c>
       <c r="H10" s="2">
         <v>123.0</v>
@@ -704,33 +741,39 @@
       <c r="I10" s="2">
         <v>123.0</v>
       </c>
+      <c r="J10" s="2">
+        <v>123.0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6">
         <v>40.0</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6">
         <v>500.0</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="6">
         <v>1.0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="6">
         <v>1.0</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="6">
         <v>1.0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="6">
         <v>1.0</v>
       </c>
     </row>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Material</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>red</t>
   </si>
 </sst>
 </file>
@@ -749,33 +746,6 @@
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6">
-        <v>40.0</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6">
-        <v>500.0</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1.0</v>
-      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Material</t>
   </si>
@@ -43,6 +43,18 @@
     <t>Poisson</t>
   </si>
   <si>
+    <t>Es</t>
+  </si>
+  <si>
+    <t>Vs</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>t_TiW</t>
   </si>
   <si>
@@ -94,7 +106,7 @@
     <t>#004c92</t>
   </si>
   <si>
-    <t>SuBsTRatE</t>
+    <t>Substrate</t>
   </si>
   <si>
     <t>grey</t>
@@ -172,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -182,17 +194,14 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,27 +462,39 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2">
         <v>5000.0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2">
         <v>1.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>123.0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>0.0</v>
       </c>
       <c r="H2" s="2">
@@ -484,28 +505,40 @@
       </c>
       <c r="J2" s="2">
         <v>123.0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>3000.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
         <v>500.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
         <v>123.0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.0</v>
       </c>
       <c r="H3" s="2">
@@ -516,28 +549,40 @@
       </c>
       <c r="J3" s="2">
         <v>123.0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>5000.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>100.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>123.0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0.0</v>
       </c>
       <c r="H4" s="2">
@@ -549,27 +594,39 @@
       <c r="J4" s="2">
         <v>123.0</v>
       </c>
+      <c r="K4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
+      <c r="A5" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="2">
         <v>1000.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>500.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2">
         <v>123.0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0.0</v>
       </c>
       <c r="H5" s="2">
@@ -580,28 +637,40 @@
       </c>
       <c r="J5" s="2">
         <v>123.0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
         <v>4500.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>3000.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
         <v>123.0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.0</v>
       </c>
       <c r="H6" s="2">
@@ -612,28 +681,40 @@
       </c>
       <c r="J6" s="2">
         <v>123.0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2">
         <v>300.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
         <v>500.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2">
         <v>123.0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.0</v>
       </c>
       <c r="H7" s="2">
@@ -644,28 +725,40 @@
       </c>
       <c r="J7" s="2">
         <v>123.0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2">
         <v>1500.0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>500.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2">
         <v>0.0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0.0</v>
       </c>
       <c r="H8" s="2">
@@ -675,29 +768,41 @@
         <v>0.0</v>
       </c>
       <c r="J8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
         <v>3000.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
         <v>500.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
         <v>123.0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>0.0</v>
       </c>
       <c r="H9" s="2">
@@ -709,27 +814,39 @@
       <c r="J9" s="2">
         <v>123.0</v>
       </c>
+      <c r="K9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
+      <c r="A10" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="2">
         <v>400000.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2">
         <v>500.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2">
         <v>123.0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>0.0</v>
       </c>
       <c r="H10" s="2">
@@ -741,11 +858,36 @@
       <c r="J10" s="2">
         <v>123.0</v>
       </c>
+      <c r="K10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Material</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>Poisson</t>
-  </si>
-  <si>
-    <t>Es</t>
-  </si>
-  <si>
-    <t>Vs</t>
   </si>
   <si>
     <t>R0</t>
@@ -138,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,12 +143,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -184,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -195,9 +183,6 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -468,28 +453,22 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>5000.0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
         <v>1.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2">
         <v>123.0</v>
@@ -507,33 +486,27 @@
         <v>123.0</v>
       </c>
       <c r="K2" s="2">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="L2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.0</v>
+        <v>-40.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
         <v>3000.0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
         <v>500.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
         <v>123.0</v>
@@ -551,33 +524,27 @@
         <v>123.0</v>
       </c>
       <c r="K3" s="2">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="L3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.0</v>
+        <v>-40.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>5000.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>100.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
         <v>123.0</v>
@@ -595,33 +562,27 @@
         <v>123.0</v>
       </c>
       <c r="K4" s="2">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="L4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.0</v>
+        <v>-40.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
         <v>1000.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>500.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>123.0</v>
@@ -639,33 +600,27 @@
         <v>123.0</v>
       </c>
       <c r="K5" s="2">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="L5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.0</v>
+        <v>-40.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <v>4500.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>3000.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2">
         <v>123.0</v>
@@ -683,33 +638,27 @@
         <v>123.0</v>
       </c>
       <c r="K6" s="2">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="L6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.0</v>
+        <v>-40.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
         <v>300.0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>500.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>123.0</v>
@@ -727,33 +676,27 @@
         <v>123.0</v>
       </c>
       <c r="K7" s="2">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="L7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.0</v>
+        <v>-40.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2">
         <v>1500.0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>500.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2">
         <v>0.0</v>
@@ -771,33 +714,27 @@
         <v>0.0</v>
       </c>
       <c r="K8" s="2">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="L8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.0</v>
+        <v>-40.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2">
         <v>3000.0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
         <v>500.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2">
         <v>123.0</v>
@@ -815,33 +752,27 @@
         <v>123.0</v>
       </c>
       <c r="K9" s="2">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="L9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.0</v>
+        <v>-40.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>31</v>
+      <c r="A10" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="2">
         <v>400000.0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
         <v>500.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
         <v>123.0</v>
@@ -859,35 +790,27 @@
         <v>123.0</v>
       </c>
       <c r="K10" s="2">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="L10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.0</v>
+        <v>-40.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Material</t>
   </si>
@@ -49,61 +49,37 @@
     <t>R</t>
   </si>
   <si>
-    <t>t_TiW</t>
+    <t>StoneyCheck_3</t>
   </si>
   <si>
     <t>nm</t>
   </si>
   <si>
-    <t>#690000</t>
-  </si>
-  <si>
-    <t>t_NiCr</t>
-  </si>
-  <si>
-    <t>#976f3d</t>
-  </si>
-  <si>
-    <t>t_PZT</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>t_LNO</t>
-  </si>
-  <si>
-    <t>#86c4fd</t>
-  </si>
-  <si>
-    <t>t_Pt</t>
-  </si>
-  <si>
-    <t>#81004c</t>
-  </si>
-  <si>
-    <t>t_TiO2</t>
-  </si>
-  <si>
-    <t>#5b5b5b</t>
-  </si>
-  <si>
-    <t>t_Ti</t>
-  </si>
-  <si>
-    <t>#9a4f00</t>
-  </si>
-  <si>
-    <t>t_SiO2</t>
-  </si>
-  <si>
-    <t>#004c92</t>
-  </si>
-  <si>
-    <t>Substrate</t>
-  </si>
-  <si>
-    <t>grey</t>
+    <t>oldlace</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>79.2</t>
+  </si>
+  <si>
+    <t>StoneyCheck_2</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>87.1</t>
+  </si>
+  <si>
+    <t>StoneyCheck_1</t>
+  </si>
+  <si>
+    <t>cornflowerblue</t>
+  </si>
+  <si>
+    <t>substrate</t>
   </si>
   <si>
     <t>test</t>
@@ -113,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -125,6 +101,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
@@ -172,20 +152,41 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,359 +459,232 @@
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>5000.0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3">
+        <v>500.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>-40.0</v>
+      <c r="F2" s="5">
+        <v>179.3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3">
+        <v>205.0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>500.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5">
+        <v>179.3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2200.0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>-346.0</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2">
-        <v>3000.0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
-        <v>500.0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>-40.0</v>
+      <c r="K3" s="3">
+        <v>260.0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5000.0</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>500.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
-        <v>100.0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>-40.0</v>
+      <c r="D4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5">
+        <v>179.3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2330.0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3">
+        <v>191.0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>83.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>675000.0</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
-        <v>500.0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>-40.0</v>
-      </c>
+      <c r="D5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5">
+        <v>179.3</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5">
+        <v>2330.0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4500.0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3000.0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-40.0</v>
-      </c>
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2">
-        <v>300.0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
-        <v>500.0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>-40.0</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1500.0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
-        <v>500.0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>-40.0</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3000.0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
-        <v>500.0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>-40.0</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2">
-        <v>400000.0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
-        <v>500.0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>-40.0</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Material</t>
   </si>
@@ -58,21 +58,12 @@
     <t>oldlace</t>
   </si>
   <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>79.2</t>
-  </si>
-  <si>
     <t>StoneyCheck_2</t>
   </si>
   <si>
     <t>cyan</t>
   </si>
   <si>
-    <t>87.1</t>
-  </si>
-  <si>
     <t>StoneyCheck_1</t>
   </si>
   <si>
@@ -80,15 +71,15 @@
   </si>
   <si>
     <t>substrate</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d.m"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10.0"/>
@@ -152,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -172,10 +163,7 @@
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -188,6 +176,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,30 +466,30 @@
         <v>14</v>
       </c>
       <c r="F2" s="5">
-        <v>179.3</v>
+        <v>1.0</v>
       </c>
       <c r="G2" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" s="5">
         <v>0.0</v>
       </c>
       <c r="I2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
+        <v>1.0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1.0</v>
       </c>
       <c r="K2" s="3">
         <v>205.0</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>16</v>
+      <c r="L2" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
         <v>500.0</v>
@@ -507,33 +501,33 @@
         <v>0.0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="5">
-        <v>179.3</v>
+        <v>1.0</v>
       </c>
       <c r="G3" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" s="5">
         <v>2200.0</v>
       </c>
       <c r="I3" s="5">
-        <v>-346.0</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
+        <v>1.0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1.0</v>
       </c>
       <c r="K3" s="3">
         <v>260.0</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>19</v>
+      <c r="L3" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3">
         <v>500.0</v>
@@ -545,33 +539,33 @@
         <v>0.0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5">
-        <v>179.3</v>
+        <v>1.0</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" s="5">
         <v>2330.0</v>
       </c>
       <c r="I4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>15</v>
+        <v>1.0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.0</v>
       </c>
       <c r="K4" s="3">
         <v>191.0</v>
       </c>
       <c r="L4" s="3">
-        <v>83.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
         <v>675000.0</v>
@@ -583,108 +577,115 @@
         <v>0.0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="5">
-        <v>179.3</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.0</v>
+      </c>
       <c r="H5" s="5">
         <v>2330.0</v>
       </c>
       <c r="I5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12">
+      <c r="F12" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -11,24 +11,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Thickness</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Indent [nm]</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Modulus [GPa]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+  <si>
+    <t>MaTerial</t>
+  </si>
+  <si>
+    <t>tHickNess</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>IndenT [Nm]</t>
+  </si>
+  <si>
+    <t>ColoR</t>
+  </si>
+  <si>
+    <t>Modulus [gpa]</t>
   </si>
   <si>
     <t>CTE [ppm/deg]</t>
@@ -37,18 +37,21 @@
     <t>Density [kg/m3]</t>
   </si>
   <si>
-    <t>Stress_x [MPa]</t>
-  </si>
-  <si>
-    <t>Poisson</t>
-  </si>
-  <si>
-    <t>R0</t>
+    <t>Stress_x [Mpa]</t>
+  </si>
+  <si>
+    <t>POISSON</t>
+  </si>
+  <si>
+    <t>r0</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
+    <t>Headline_test</t>
+  </si>
+  <si>
     <t>StoneyCheck_3</t>
   </si>
   <si>
@@ -58,19 +61,58 @@
     <t>oldlace</t>
   </si>
   <si>
+    <t>179.3</t>
+  </si>
+  <si>
+    <t>79.2</t>
+  </si>
+  <si>
     <t>StoneyCheck_2</t>
   </si>
   <si>
     <t>cyan</t>
   </si>
   <si>
-    <t>StoneyCheck_1</t>
+    <t>87.1</t>
+  </si>
+  <si>
+    <t>substrate</t>
   </si>
   <si>
     <t>cornflowerblue</t>
   </si>
   <si>
-    <t>substrate</t>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>blaaau</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>33.33</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>-44.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+  </si>
+  <si>
+    <t>this line contains only "spaces"</t>
   </si>
 </sst>
 </file>
@@ -94,13 +136,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -143,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -151,36 +193,30 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -448,244 +484,329 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4">
         <v>500.0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4">
         <v>0.0</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.0</v>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.0</v>
       </c>
       <c r="H2" s="5">
         <v>0.0</v>
       </c>
       <c r="I2" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K2" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="K2" s="4">
         <v>205.0</v>
       </c>
-      <c r="L2" s="3">
-        <v>1.0</v>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4">
         <v>500.0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
         <v>0.0</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1.0</v>
+        <v>179.3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.0</v>
       </c>
       <c r="H3" s="5">
         <v>2200.0</v>
       </c>
       <c r="I3" s="5">
-        <v>1.0</v>
+        <v>-346.0</v>
       </c>
       <c r="J3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K3" s="3">
+        <v>100.0</v>
+      </c>
+      <c r="K3" s="4">
         <v>260.0</v>
       </c>
-      <c r="L3" s="3">
-        <v>1.0</v>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3">
-        <v>500.0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4">
+        <v>675000.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
         <v>0.0</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="5">
         <v>2330.0</v>
       </c>
       <c r="I4" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>191.0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1.0</v>
-      </c>
+        <v>100.0</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3">
-        <v>675000.0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>2330.0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1.0</v>
-      </c>
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1.0</v>
-      </c>
+        <v>100.0</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8">
+        <v>11.11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8">
+        <v>11.11</v>
+      </c>
+      <c r="E6" s="8">
+        <v>11.11</v>
+      </c>
+      <c r="F6" s="8">
+        <v>11.11</v>
+      </c>
+      <c r="G6" s="8">
+        <v>11.11</v>
+      </c>
+      <c r="H6" s="8">
+        <v>11.11</v>
+      </c>
+      <c r="I6" s="8">
+        <v>11.11</v>
+      </c>
+      <c r="J6" s="5">
+        <v>11.11</v>
+      </c>
+      <c r="K6" s="8">
+        <v>11.11</v>
+      </c>
+      <c r="L6" s="8">
+        <v>11.11</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="8">
+        <v>-22.22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8">
+        <v>-22.22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8">
+        <v>-22.22</v>
+      </c>
+      <c r="G7" s="8">
+        <v>-22.22</v>
+      </c>
+      <c r="H7" s="8">
+        <v>-22.22</v>
+      </c>
+      <c r="I7" s="8">
+        <v>-22.22</v>
+      </c>
+      <c r="J7" s="8">
+        <v>-22.22</v>
+      </c>
+      <c r="K7" s="8">
+        <v>-22.22</v>
+      </c>
+      <c r="L7" s="8">
+        <v>-22.22</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="A9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="A10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12">
-      <c r="F12" s="12"/>
+      <c r="F12" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Material</t>
   </si>
@@ -55,28 +55,31 @@
     <t>nm</t>
   </si>
   <si>
-    <t>oldlace</t>
+    <t>yellow</t>
   </si>
   <si>
     <t>PZT</t>
   </si>
   <si>
+    <t>darkgoldenrod</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>lightgray</t>
+  </si>
+  <si>
+    <t>SiO2</t>
+  </si>
+  <si>
     <t>cyan</t>
   </si>
   <si>
-    <t>Pt</t>
-  </si>
-  <si>
-    <t>cornflowerblue</t>
-  </si>
-  <si>
-    <t>SiO2</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
-    <t>grey</t>
+    <t>royalblue</t>
   </si>
 </sst>
 </file>
@@ -457,8 +460,10 @@
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2">
@@ -469,7 +474,7 @@
         <v>19300.0</v>
       </c>
       <c r="I2" s="2">
-        <v>100.0</v>
+        <v>110.0</v>
       </c>
       <c r="J2" s="2">
         <v>0.42</v>
@@ -487,8 +492,10 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2">
+        <v>500.0</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="2">
@@ -499,13 +506,17 @@
         <v>7750.0</v>
       </c>
       <c r="I3" s="2">
-        <v>60.0</v>
+        <v>66.0</v>
       </c>
       <c r="J3" s="2">
         <v>0.28</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>50.0</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -518,7 +529,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2">
@@ -526,10 +537,10 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
-        <v>21450.0</v>
+        <v>21090.0</v>
       </c>
       <c r="I4" s="2">
-        <v>1115.0</v>
+        <v>908.0</v>
       </c>
       <c r="J4" s="2">
         <v>0.38</v>
@@ -548,8 +559,8 @@
         <v>13</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>70.0</v>
@@ -569,24 +580,24 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
-        <v>2294.4</v>
+        <v>3000.0</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2">
         <v>166.0</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
-        <v>2331.0</v>
+        <v>2330.0</v>
       </c>
       <c r="I6" s="2">
         <v>0.0</v>
@@ -594,8 +605,12 @@
       <c r="J6" s="2">
         <v>0.065</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="6"/>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -474,7 +474,7 @@
         <v>19300.0</v>
       </c>
       <c r="I2" s="2">
-        <v>110.0</v>
+        <v>100.0</v>
       </c>
       <c r="J2" s="2">
         <v>0.42</v>
@@ -506,7 +506,7 @@
         <v>7750.0</v>
       </c>
       <c r="I3" s="2">
-        <v>66.0</v>
+        <v>60.0</v>
       </c>
       <c r="J3" s="2">
         <v>0.28</v>
@@ -540,7 +540,7 @@
         <v>21090.0</v>
       </c>
       <c r="I4" s="2">
-        <v>908.0</v>
+        <v>1115.0</v>
       </c>
       <c r="J4" s="2">
         <v>0.38</v>

--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -16,7 +16,7 @@
     <t>Material</t>
   </si>
   <si>
-    <t>Thickness</t>
+    <t>Thickness [nm]</t>
   </si>
   <si>
     <t>Unit</t>
@@ -155,12 +155,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -416,7 +419,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -451,224 +454,224 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>250.0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>500.0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>78.0</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>19300.0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>100.0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>0.42</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>2000.0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>500.0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>58.0</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <v>7750.0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>60.0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>0.28</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>100.0</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="3">
         <v>50.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>100.0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>168.0</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>21090.0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>1115.0</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>0.38</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>1600.0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>70.0</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <v>2200.0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>-346.0</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>0.3</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>3000.0</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>166.0</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>2330.0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>0.0</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>0.065</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>300.0</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>10.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>
